--- a/ゼミ用/99その他/レビュー/ソースコード/20210501.xlsx
+++ b/ゼミ用/99その他/レビュー/ソースコード/20210501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\htdocs\php\Seminar\ゼミ用\99その他\レビュー\ソースコード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021932F-F62F-42A6-93CC-79F6460C362E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC081B3-1AA8-4DFB-8F03-990011A4CECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,7 +940,7 @@
   <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -994,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
